--- a/Code/Matlab/K_L_Fitting/Will_data.xlsx
+++ b/Code/Matlab/K_L_Fitting/Will_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="3060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="3120">
   <si>
     <t>K_room1_  1</t>
   </si>
@@ -9013,6 +9013,186 @@
   </si>
   <si>
     <t>K_room6_500</t>
+  </si>
+  <si>
+    <t>K_fit_room1_1</t>
+  </si>
+  <si>
+    <t>K_fit_room1_2</t>
+  </si>
+  <si>
+    <t>K_fit_room1_3</t>
+  </si>
+  <si>
+    <t>K_fit_room1_4</t>
+  </si>
+  <si>
+    <t>K_fit_room1_5</t>
+  </si>
+  <si>
+    <t>K_fit_room2_1</t>
+  </si>
+  <si>
+    <t>K_fit_room2_2</t>
+  </si>
+  <si>
+    <t>K_fit_room2_3</t>
+  </si>
+  <si>
+    <t>K_fit_room2_4</t>
+  </si>
+  <si>
+    <t>K_fit_room2_5</t>
+  </si>
+  <si>
+    <t>K_fit_room3_1</t>
+  </si>
+  <si>
+    <t>K_fit_room3_2</t>
+  </si>
+  <si>
+    <t>K_fit_room3_3</t>
+  </si>
+  <si>
+    <t>K_fit_room3_4</t>
+  </si>
+  <si>
+    <t>K_fit_room3_5</t>
+  </si>
+  <si>
+    <t>K_fit_room4_1</t>
+  </si>
+  <si>
+    <t>K_fit_room4_2</t>
+  </si>
+  <si>
+    <t>K_fit_room4_3</t>
+  </si>
+  <si>
+    <t>K_fit_room4_4</t>
+  </si>
+  <si>
+    <t>K_fit_room4_5</t>
+  </si>
+  <si>
+    <t>K_fit_room5_1</t>
+  </si>
+  <si>
+    <t>K_fit_room5_2</t>
+  </si>
+  <si>
+    <t>K_fit_room5_3</t>
+  </si>
+  <si>
+    <t>K_fit_room5_4</t>
+  </si>
+  <si>
+    <t>K_fit_room5_5</t>
+  </si>
+  <si>
+    <t>K_fit_room6_1</t>
+  </si>
+  <si>
+    <t>K_fit_room6_2</t>
+  </si>
+  <si>
+    <t>K_fit_room6_3</t>
+  </si>
+  <si>
+    <t>K_fit_room6_4</t>
+  </si>
+  <si>
+    <t>K_fit_room6_5</t>
+  </si>
+  <si>
+    <t>K_fit_room1_1</t>
+  </si>
+  <si>
+    <t>K_fit_room1_2</t>
+  </si>
+  <si>
+    <t>K_fit_room1_3</t>
+  </si>
+  <si>
+    <t>K_fit_room1_4</t>
+  </si>
+  <si>
+    <t>K_fit_room1_5</t>
+  </si>
+  <si>
+    <t>K_fit_room2_1</t>
+  </si>
+  <si>
+    <t>K_fit_room2_2</t>
+  </si>
+  <si>
+    <t>K_fit_room2_3</t>
+  </si>
+  <si>
+    <t>K_fit_room2_4</t>
+  </si>
+  <si>
+    <t>K_fit_room2_5</t>
+  </si>
+  <si>
+    <t>K_fit_room3_1</t>
+  </si>
+  <si>
+    <t>K_fit_room3_2</t>
+  </si>
+  <si>
+    <t>K_fit_room3_3</t>
+  </si>
+  <si>
+    <t>K_fit_room3_4</t>
+  </si>
+  <si>
+    <t>K_fit_room3_5</t>
+  </si>
+  <si>
+    <t>K_fit_room4_1</t>
+  </si>
+  <si>
+    <t>K_fit_room4_2</t>
+  </si>
+  <si>
+    <t>K_fit_room4_3</t>
+  </si>
+  <si>
+    <t>K_fit_room4_4</t>
+  </si>
+  <si>
+    <t>K_fit_room4_5</t>
+  </si>
+  <si>
+    <t>K_fit_room5_1</t>
+  </si>
+  <si>
+    <t>K_fit_room5_2</t>
+  </si>
+  <si>
+    <t>K_fit_room5_3</t>
+  </si>
+  <si>
+    <t>K_fit_room5_4</t>
+  </si>
+  <si>
+    <t>K_fit_room5_5</t>
+  </si>
+  <si>
+    <t>K_fit_room6_1</t>
+  </si>
+  <si>
+    <t>K_fit_room6_2</t>
+  </si>
+  <si>
+    <t>K_fit_room6_3</t>
+  </si>
+  <si>
+    <t>K_fit_room6_4</t>
+  </si>
+  <si>
+    <t>K_fit_room6_5</t>
   </si>
   <si>
     <t>K_fit_room1_1</t>
@@ -9213,7 +9393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -9224,15 +9404,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12249,94 +12433,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3030</v>
+        <v>3090</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3031</v>
+        <v>3091</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3032</v>
+        <v>3092</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3033</v>
+        <v>3093</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3034</v>
+        <v>3094</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3035</v>
+        <v>3095</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3036</v>
+        <v>3096</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3037</v>
+        <v>3097</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3038</v>
+        <v>3098</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3039</v>
+        <v>3099</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3040</v>
+        <v>3100</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3041</v>
+        <v>3101</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3042</v>
+        <v>3102</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3043</v>
+        <v>3103</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3044</v>
+        <v>3104</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3045</v>
+        <v>3105</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3046</v>
+        <v>3106</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3047</v>
+        <v>3107</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3048</v>
+        <v>3108</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3049</v>
+        <v>3109</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3050</v>
+        <v>3110</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3051</v>
+        <v>3111</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3052</v>
+        <v>3112</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3053</v>
+        <v>3113</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3054</v>
+        <v>3114</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3055</v>
+        <v>3115</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>3056</v>
+        <v>3116</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>3057</v>
+        <v>3117</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>3058</v>
+        <v>3118</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>3059</v>
+        <v>3119</v>
       </c>
       <c r="AE1" s="0" t="s">
         <v>30</v>
@@ -21266,49 +21450,49 @@
         <v>-2.73861</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.43935999999999997</v>
+        <v>-0.37290000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.75590999999999997</v>
+        <v>0.63841000000000003</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.50602000000000003</v>
+        <v>-0.40643000000000001</v>
       </c>
       <c r="I2" s="0">
-        <v>0.1042</v>
+        <v>0.088010000000000005</v>
       </c>
       <c r="J2" s="0">
-        <v>-2.3372099999999998</v>
+        <v>-2.0746899999999999</v>
       </c>
       <c r="K2" s="0">
-        <v>0.17219999999999999</v>
+        <v>0.19062999999999999</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.34266999999999997</v>
+        <v>-0.37928000000000001</v>
       </c>
       <c r="M2" s="0">
-        <v>0.78386999999999996</v>
+        <v>0.83545999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.044339999999999997</v>
+        <v>-0.048939999999999997</v>
       </c>
       <c r="O2" s="0">
-        <v>-8.8697900000000001</v>
+        <v>-7.1738600000000003</v>
       </c>
       <c r="P2" s="0">
-        <v>-0.065610000000000002</v>
+        <v>-0.055800000000000002</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.057439999999999998</v>
+        <v>0.042209999999999998</v>
       </c>
       <c r="R2" s="0">
-        <v>0.24740999999999999</v>
+        <v>0.22974</v>
       </c>
       <c r="S2" s="0">
-        <v>0.0081499999999999993</v>
+        <v>0.0061799999999999997</v>
       </c>
       <c r="T2" s="0">
-        <v>-0.85311000000000003</v>
+        <v>-0.77681</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -30268,49 +30452,49 @@
         <v>-2.73861</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.43935999999999997</v>
+        <v>-0.37290000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.75590999999999997</v>
+        <v>0.63841000000000003</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.50602000000000003</v>
+        <v>-0.40643000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>0.1042</v>
+        <v>0.088010000000000005</v>
       </c>
       <c r="J3" s="0">
-        <v>-2.3372099999999998</v>
+        <v>-2.0746899999999999</v>
       </c>
       <c r="K3" s="0">
-        <v>0.17219999999999999</v>
+        <v>0.19062999999999999</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.34266999999999997</v>
+        <v>-0.37928000000000001</v>
       </c>
       <c r="M3" s="0">
-        <v>0.78386999999999996</v>
+        <v>0.83545999999999998</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.044339999999999997</v>
+        <v>-0.048939999999999997</v>
       </c>
       <c r="O3" s="0">
-        <v>-8.8697900000000001</v>
+        <v>-7.1738600000000003</v>
       </c>
       <c r="P3" s="0">
-        <v>-0.065610000000000002</v>
+        <v>-0.055800000000000002</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.057439999999999998</v>
+        <v>0.042209999999999998</v>
       </c>
       <c r="R3" s="0">
-        <v>0.24740999999999999</v>
+        <v>0.22974</v>
       </c>
       <c r="S3" s="0">
-        <v>0.0081499999999999993</v>
+        <v>0.0061799999999999997</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.85311000000000003</v>
+        <v>-0.77681</v>
       </c>
       <c r="U3" s="0">
         <v>-0</v>
